--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,170 +424,153 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>21004500210003</t>
+          <t>21004500210004</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>YADAV AKHILESH RADHESHYAM</t>
+          <t>student 4</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W2550023003</t>
+          <t>W2250023004</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21004500210011</t>
+          <t>21004500210005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PRAJAPATI KEVAL KIRAN</t>
+          <t>student 5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W2550023011</t>
+          <t>W2250023005</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21004500210012</t>
+          <t>21004500210006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PATIL PRIYANKA PRALHAD</t>
+          <t>student 6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W2550023012</t>
+          <t>W2250023006</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21004500210016</t>
+          <t>21004500210007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DESHMUKH VIRANG RANCHHODBHAI</t>
+          <t>student 7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W2550023016</t>
+          <t>W2250023007</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21004500210018</t>
+          <t>21004500210008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SHAH RUDRA SANJAYBHAI</t>
+          <t>student 8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W2550023018</t>
+          <t>W2250023008</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21004500210025</t>
+          <t>21004500210009</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PATEL NAYANKUMAR ASHOKBHAI</t>
+          <t>student 9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>W2550023025</t>
+          <t>W2250023009</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21004500210026</t>
+          <t>21004500210017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VAGHASIYA KEYUR HARESHBHAI</t>
+          <t>student 17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>W2550023026</t>
+          <t>W2250023017</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21004500210037</t>
+          <t>21004500210029</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MANDAVIYA PARTH KISHORBHAI</t>
+          <t>student 29</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W2550023037</t>
+          <t>W2250023029</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21004500210038</t>
+          <t>21004500210030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">SHAIKH MOHAMMADAZAZ  MOHAMMED HASAN ABBAS </t>
+          <t>student 30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W2550023038</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>21004500210062</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PRAJAPATI ZANKRUTI ASHOKBHAI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>W2550023062</t>
+          <t>W2250023030</t>
         </is>
       </c>
     </row>

--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,109 +424,109 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>21004500210004</t>
+          <t>22004500210001</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>student 4</t>
+          <t>student 1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W2250023004</t>
+          <t>W2250021001</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21004500210005</t>
+          <t>22004500210004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student 5</t>
+          <t>student 4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W2250023005</t>
+          <t>W2250021004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21004500210006</t>
+          <t>22004500210005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>student 6</t>
+          <t>student 5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W2250023006</t>
+          <t>W2250021005</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21004500210007</t>
+          <t>22004500210009</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>student 7</t>
+          <t>student 9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W2250023007</t>
+          <t>W2250021009</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21004500210008</t>
+          <t>22004500210012</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>student 8</t>
+          <t>student 12</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W2250023008</t>
+          <t>W2250021012</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21004500210009</t>
+          <t>22004500210013</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>student 9</t>
+          <t>student 13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>W2250023009</t>
+          <t>W2250021013</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21004500210017</t>
+          <t>22004500210017</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -536,41 +536,58 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>W2250023017</t>
+          <t>W2250021017</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21004500210029</t>
+          <t>22004500210021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>student 29</t>
+          <t>student 21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W2250023029</t>
+          <t>W2250021021</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21004500210030</t>
+          <t>22004500210025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>student 30</t>
+          <t>student 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>W2250023030</t>
+          <t>W2250021025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>22004500210029</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>student 29</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>W2250021029</t>
         </is>
       </c>
     </row>

--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,170 +424,68 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>22004500210001</t>
+          <t>21004500210002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>student 1</t>
+          <t>student 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W2250021001</t>
+          <t>W2350023002</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22004500210004</t>
+          <t>21004500210021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student 4</t>
+          <t>student 21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W2250021004</t>
+          <t>W2350023021</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22004500210005</t>
+          <t>21004500210025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>student 5</t>
+          <t>student 25</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W2250021005</t>
+          <t>W2350023025</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>22004500210009</t>
+          <t>21004500210029</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>student 9</t>
+          <t>student 29</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W2250021009</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>22004500210012</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>student 12</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>W2250021012</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>22004500210013</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>student 13</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>W2250021013</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22004500210017</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>student 17</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>W2250021017</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>22004500210021</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>student 21</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>W2250021021</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>22004500210025</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>student 25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>W2250021025</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>22004500210029</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>student 29</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>W2250021029</t>
+          <t>W2350023029</t>
         </is>
       </c>
     </row>

--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -424,68 +424,68 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>21004500210002</t>
+          <t>22004500210001</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>student 2</t>
+          <t>student 1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W2350023002</t>
+          <t>W2350021001</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21004500210021</t>
+          <t>22004500210002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student 21</t>
+          <t>student 2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W2350023021</t>
+          <t>W2350021002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21004500210025</t>
+          <t>22004500210003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>student 25</t>
+          <t>student 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W2350023025</t>
+          <t>W2350021003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21004500210029</t>
+          <t>22004500210010</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>student 29</t>
+          <t>student 10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W2350023029</t>
+          <t>W2350021010</t>
         </is>
       </c>
     </row>

--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,68 +424,51 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>22004500210001</t>
+          <t>18004500210002</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>student 1</t>
+          <t>student 2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W2350021001</t>
+          <t>W2050021002</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22004500210002</t>
+          <t>18004500210004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student 2</t>
+          <t>student 4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W2350021002</t>
+          <t>W2050021004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>22004500210003</t>
+          <t>18004500210009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>student 3</t>
+          <t>student 9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W2350021003</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>22004500210010</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>student 10</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>W2350021010</t>
+          <t>W2050021009</t>
         </is>
       </c>
     </row>

--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,51 +424,376 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>18004500210002</t>
+          <t>Enrollment</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>student 2</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>W2050021002</t>
+          <t>Seat Number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Theory Marks</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Theory Status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Practical Marks</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Practical Status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mid Marks</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mid Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18004500210004</t>
+          <t>18004500210001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>student 4</t>
+          <t>student 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W2050021004</t>
+          <t>W19500221001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18004500210002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>student 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>W19500221002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18004500210004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>student 4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>W19500221004</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>18004500210005</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>student 5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>W19500221005</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>18004500210007</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>student 7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>W19500221007</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>18004500210008</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>student 8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>W19500221008</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>18004500210009</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>student 9</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>W2050021009</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>W19500221009</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/exam_management/Seat.xlsx
+++ b/exam_management/Seat.xlsx
@@ -471,7 +471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18004500210001</t>
+          <t>19004500210001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>W19500221001</t>
+          <t>W19500211001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,29 +506,29 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>18004500210002</t>
+          <t>19004500210003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>student 2</t>
+          <t>student 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>W19500221002</t>
+          <t>W19500211003</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,7 +565,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>18004500210004</t>
+          <t>19004500210004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>W19500221004</t>
+          <t>W19500211004</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -600,19 +600,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18004500210005</t>
+          <t>19004500210005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -622,44 +622,44 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>W19500221005</t>
+          <t>W19500211005</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>Pass</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>18004500210007</t>
+          <t>19004500210007</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>W19500221007</t>
+          <t>W19500211007</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>18004500210008</t>
+          <t>19004500210008</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -716,44 +716,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>W19500221008</t>
+          <t>W19500211008</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Pass</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18004500210009</t>
+          <t>19004500210009</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,37 +763,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>W19500221009</t>
+          <t>W19500211009</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
